--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\Academy\workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS500516\Documents\workspace\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84786B58-1E18-45C0-A03F-99B31721F4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE5121F-375B-4D70-BAC0-C9D3ED9ECE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="2" r:id="rId1"/>
-    <sheet name="영상" sheetId="3" r:id="rId2"/>
-    <sheet name="이미지" sheetId="4" r:id="rId3"/>
-    <sheet name="게시글" sheetId="6" r:id="rId4"/>
-    <sheet name="댓글" sheetId="7" r:id="rId5"/>
+    <sheet name="나의 노하우(영상)" sheetId="9" r:id="rId2"/>
+    <sheet name="영상" sheetId="3" r:id="rId3"/>
+    <sheet name="이미지" sheetId="4" r:id="rId4"/>
+    <sheet name="게시글" sheetId="6" r:id="rId5"/>
+    <sheet name="댓글" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="127">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -500,6 +501,26 @@
   </si>
   <si>
     <t>r_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 노하우(영상)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_know_how</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 올린 영상 테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1036,6 +1057,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1065,9 +1089,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2072,20 +2093,20 @@
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="35" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="37">
+      <c r="I2" s="36"/>
+      <c r="J2" s="38">
         <v>44942</v>
       </c>
-      <c r="K2" s="38"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -2097,34 +2118,34 @@
       <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="36" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="41"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2505,7 +2526,7 @@
       <c r="B27" s="22">
         <v>1</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="31">
         <v>44942</v>
       </c>
       <c r="D27" s="23" t="s">
@@ -2641,6 +2662,1169 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092F59DB-7C6C-4375-9B96-C96D8F6DFFAA}">
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="38">
+        <v>44943</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="41"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="22">
+        <v>1</v>
+      </c>
+      <c r="C27" s="31">
+        <v>44942</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C890CB-18E4-40B2-9651-A2DA974FF74E}">
   <dimension ref="B1:L35"/>
   <sheetViews>
@@ -3303,20 +4487,20 @@
       <c r="C2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="35" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="37">
+      <c r="I2" s="36"/>
+      <c r="J2" s="38">
         <v>44942</v>
       </c>
-      <c r="K2" s="38"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3328,34 +4512,34 @@
       <c r="C3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="36" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="41"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3726,7 +4910,7 @@
       <c r="B27" s="22">
         <v>1</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="31">
         <v>44942</v>
       </c>
       <c r="D27" s="23" t="s">
@@ -3861,7 +5045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8C82F5-4572-4347-A743-8C9DA75DDF73}">
   <dimension ref="B1:L35"/>
   <sheetViews>
@@ -4524,20 +5708,20 @@
       <c r="C2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="35" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="37">
+      <c r="I2" s="36"/>
+      <c r="J2" s="38">
         <v>44942</v>
       </c>
-      <c r="K2" s="38"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -4549,34 +5733,34 @@
       <c r="C3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="36" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="41"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4939,7 +6123,7 @@
       <c r="B27" s="22">
         <v>1</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="31">
         <v>44942</v>
       </c>
       <c r="D27" s="23" t="s">
@@ -5060,12 +6244,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5074,7 +6258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD12804-0DC3-4CAE-BB11-B7F71BC83389}">
   <dimension ref="B1:L35"/>
   <sheetViews>
@@ -5737,20 +6921,20 @@
       <c r="C2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="35" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="37">
+      <c r="I2" s="36"/>
+      <c r="J2" s="38">
         <v>44942</v>
       </c>
-      <c r="K2" s="38"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -5762,34 +6946,34 @@
       <c r="C3" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="36" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="41"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -6171,7 +7355,7 @@
       <c r="B27" s="22">
         <v>1</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="31">
         <v>44942</v>
       </c>
       <c r="D27" s="23" t="s">
@@ -6292,12 +7476,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6306,12 +7490,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C88C26-5956-4029-B804-7914EE01B7F4}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6327,7 +7511,7 @@
     <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="258" width="8.88671875" style="1"/>
     <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
     <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -6969,20 +8153,20 @@
       <c r="C2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="35" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="37">
+      <c r="I2" s="36"/>
+      <c r="J2" s="38">
         <v>44942</v>
       </c>
-      <c r="K2" s="38"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -6994,34 +8178,34 @@
       <c r="C3" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="36" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="41"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -7392,7 +8576,7 @@
       <c r="B27" s="22">
         <v>1</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="31">
         <v>44942</v>
       </c>
       <c r="D27" s="23" t="s">
@@ -7513,12 +8697,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS500516\Documents\workspace\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE5121F-375B-4D70-BAC0-C9D3ED9ECE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2667DCBF-917E-4ACF-B64A-2E7091E11ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="2" r:id="rId1"/>
     <sheet name="나의 노하우(영상)" sheetId="9" r:id="rId2"/>
-    <sheet name="영상" sheetId="3" r:id="rId3"/>
-    <sheet name="이미지" sheetId="4" r:id="rId4"/>
-    <sheet name="게시글" sheetId="6" r:id="rId5"/>
-    <sheet name="댓글" sheetId="7" r:id="rId6"/>
+    <sheet name="나의 노하우(이미지)" sheetId="12" r:id="rId3"/>
+    <sheet name="권한(영상)" sheetId="13" r:id="rId4"/>
+    <sheet name="영상" sheetId="3" r:id="rId5"/>
+    <sheet name="이미지" sheetId="4" r:id="rId6"/>
+    <sheet name="쇼츠" sheetId="10" r:id="rId7"/>
+    <sheet name="게시글" sheetId="6" r:id="rId8"/>
+    <sheet name="댓글" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="141">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -405,10 +408,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>b_update_date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -457,70 +456,131 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>r_remove_date</t>
+  </si>
+  <si>
+    <t>삭제일자</t>
+  </si>
+  <si>
+    <t>r_modified_date</t>
+  </si>
+  <si>
+    <t>수정일자</t>
+  </si>
+  <si>
+    <t>r_update_date</t>
+  </si>
+  <si>
+    <t>작성일자</t>
+  </si>
+  <si>
+    <t>r_content</t>
+  </si>
+  <si>
+    <t>댓글내용</t>
+  </si>
+  <si>
+    <t>r_nickname</t>
+  </si>
+  <si>
+    <t>닉네임</t>
+  </si>
+  <si>
+    <t>큰정수형</t>
+  </si>
+  <si>
+    <t>게시글번호</t>
+  </si>
+  <si>
+    <t>board_content 의 b_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 노하우(영상)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_know_how</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 올린 영상 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼츠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shorts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>PRIMARY KEY(r_update_date, r_nickname)</t>
-  </si>
-  <si>
-    <t>r_remove_date</t>
-  </si>
-  <si>
-    <t>삭제일자</t>
-  </si>
-  <si>
-    <t>r_modified_date</t>
-  </si>
-  <si>
-    <t>수정일자</t>
-  </si>
-  <si>
-    <t>r_update_date</t>
-  </si>
-  <si>
-    <t>작성일자</t>
-  </si>
-  <si>
-    <t>r_content</t>
-  </si>
-  <si>
-    <t>댓글내용</t>
-  </si>
-  <si>
-    <t>r_nickname</t>
-  </si>
-  <si>
-    <t>닉네임</t>
-  </si>
-  <si>
-    <t>큰정수형</t>
-  </si>
-  <si>
-    <t>게시글번호</t>
-  </si>
-  <si>
-    <t>board_content 의 b_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 노하우(영상)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_know_how</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 올린 영상 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_username</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_v_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(username,v_code)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(username,i_code)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_i_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 노하우(이미지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_know_how</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한(영상)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_authority</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1435,7 +1495,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2665,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092F59DB-7C6C-4375-9B96-C96D8F6DFFAA}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2679,7 +2739,7 @@
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
@@ -3322,7 +3382,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>14</v>
@@ -3347,7 +3407,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -3368,7 +3428,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -3420,16 +3480,30 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+        <v>122</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="H6" s="10"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="I6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3437,16 +3511,30 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3458,7 +3546,1202 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="22">
+        <v>1</v>
+      </c>
+      <c r="C27" s="31">
+        <v>44942</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D86A510-FD8D-4CD3-9F32-9C8BD3FE871C}">
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="38">
+        <v>44943</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="41"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -3824,12 +5107,1205 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C032AE7F-838F-4072-B527-A827ADB21ED7}">
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="38">
+        <v>44943</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="41"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="22">
+        <v>1</v>
+      </c>
+      <c r="C27" s="31">
+        <v>44942</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C890CB-18E4-40B2-9651-A2DA974FF74E}">
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4749,7 +7225,9 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -4764,7 +7242,9 @@
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -4779,7 +7259,9 @@
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -5045,12 +7527,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8C82F5-4572-4347-A743-8C9DA75DDF73}">
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5947,10 +8429,18 @@
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -5962,7 +8452,9 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -5977,7 +8469,9 @@
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -5992,7 +8486,9 @@
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -6258,12 +8754,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD12804-0DC3-4CAE-BB11-B7F71BC83389}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8EB703-C647-4240-9B71-09FEDD5E4BD9}">
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6919,7 +9415,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>14</v>
@@ -6944,7 +9440,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -7015,13 +9511,1216 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="22">
+        <v>1</v>
+      </c>
+      <c r="C27" s="31">
+        <v>44942</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD12804-0DC3-4CAE-BB11-B7F71BC83389}">
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="38">
+        <v>44942</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="41"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>87</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>49</v>
@@ -7093,7 +10792,7 @@
         <v>92</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>93</v>
@@ -7109,17 +10808,17 @@
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>76</v>
+      <c r="C10" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="30"/>
@@ -7132,17 +10831,17 @@
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>57</v>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -7156,16 +10855,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -7179,16 +10878,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -7201,18 +10900,10 @@
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>102</v>
-      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -7490,12 +11181,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C88C26-5956-4029-B804-7914EE01B7F4}">
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8151,7 +11842,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>14</v>
@@ -8176,7 +11867,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -8253,7 +11944,7 @@
         <v>87</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>72</v>
@@ -8274,13 +11965,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>72</v>
@@ -8291,7 +11982,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8299,13 +11990,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>90</v>
@@ -8322,13 +12013,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>90</v>
@@ -8345,16 +12036,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -8368,16 +12059,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -8391,16 +12082,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -8419,7 +12110,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>

--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -8,20 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS500516\Documents\workspace\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2667DCBF-917E-4ACF-B64A-2E7091E11ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8002A70E-BD4B-4A6B-9077-90B7592D588A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="2" r:id="rId1"/>
-    <sheet name="나의 노하우(영상)" sheetId="9" r:id="rId2"/>
-    <sheet name="나의 노하우(이미지)" sheetId="12" r:id="rId3"/>
-    <sheet name="권한(영상)" sheetId="13" r:id="rId4"/>
-    <sheet name="영상" sheetId="3" r:id="rId5"/>
-    <sheet name="이미지" sheetId="4" r:id="rId6"/>
-    <sheet name="쇼츠" sheetId="10" r:id="rId7"/>
-    <sheet name="게시글" sheetId="6" r:id="rId8"/>
-    <sheet name="댓글" sheetId="7" r:id="rId9"/>
+    <sheet name="이미지" sheetId="4" r:id="rId2"/>
+    <sheet name="영상" sheetId="3" r:id="rId3"/>
+    <sheet name="쇼츠" sheetId="10" r:id="rId4"/>
+    <sheet name="구매내역" sheetId="15" r:id="rId5"/>
+    <sheet name="게시글" sheetId="6" r:id="rId6"/>
+    <sheet name="댓글" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="159">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -500,14 +498,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>나의 노하우(영상)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_know_how</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>유저이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -516,10 +506,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사용자가 올린 영상 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>등록날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -544,43 +530,127 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>f_username</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_v_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이미지코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PRIMARY KEY(username,v_code)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY(username,i_code)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_i_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 노하우(이미지)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_know_how</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한(영상)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_authority</t>
+    <t>default current_timestamp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_reg_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_start_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_reg_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_start_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_src</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_delete_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user 테이블의 username </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_series</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_delete_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> DATETIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼츠코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장파일명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_save_file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매내역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(500)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_reg_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_pay_method</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1495,7 +1565,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2440,10 +2510,18 @@
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -2722,3590 +2800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092F59DB-7C6C-4375-9B96-C96D8F6DFFAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8C82F5-4572-4347-A743-8C9DA75DDF73}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="258" width="8.88671875" style="1"/>
-    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
-    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="269" max="514" width="8.88671875" style="1"/>
-    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
-    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="525" max="770" width="8.88671875" style="1"/>
-    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
-    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="781" max="1026" width="8.88671875" style="1"/>
-    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1282" width="8.88671875" style="1"/>
-    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1538" width="8.88671875" style="1"/>
-    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1794" width="8.88671875" style="1"/>
-    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1805" max="2050" width="8.88671875" style="1"/>
-    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2306" width="8.88671875" style="1"/>
-    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2562" width="8.88671875" style="1"/>
-    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2818" width="8.88671875" style="1"/>
-    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2829" max="3074" width="8.88671875" style="1"/>
-    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3330" width="8.88671875" style="1"/>
-    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3586" width="8.88671875" style="1"/>
-    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3842" width="8.88671875" style="1"/>
-    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3853" max="4098" width="8.88671875" style="1"/>
-    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4354" width="8.88671875" style="1"/>
-    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4610" width="8.88671875" style="1"/>
-    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4866" width="8.88671875" style="1"/>
-    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4877" max="5122" width="8.88671875" style="1"/>
-    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5378" width="8.88671875" style="1"/>
-    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5634" width="8.88671875" style="1"/>
-    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5890" width="8.88671875" style="1"/>
-    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5901" max="6146" width="8.88671875" style="1"/>
-    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6402" width="8.88671875" style="1"/>
-    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6658" width="8.88671875" style="1"/>
-    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6914" width="8.88671875" style="1"/>
-    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6925" max="7170" width="8.88671875" style="1"/>
-    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7426" width="8.88671875" style="1"/>
-    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7682" width="8.88671875" style="1"/>
-    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7938" width="8.88671875" style="1"/>
-    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7949" max="8194" width="8.88671875" style="1"/>
-    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8450" width="8.88671875" style="1"/>
-    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8706" width="8.88671875" style="1"/>
-    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8962" width="8.88671875" style="1"/>
-    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8973" max="9218" width="8.88671875" style="1"/>
-    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9474" width="8.88671875" style="1"/>
-    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9730" width="8.88671875" style="1"/>
-    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9986" width="8.88671875" style="1"/>
-    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9997" max="10242" width="8.88671875" style="1"/>
-    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10498" width="8.88671875" style="1"/>
-    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10754" width="8.88671875" style="1"/>
-    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10765" max="11010" width="8.88671875" style="1"/>
-    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11266" width="8.88671875" style="1"/>
-    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11522" width="8.88671875" style="1"/>
-    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11778" width="8.88671875" style="1"/>
-    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11789" max="12034" width="8.88671875" style="1"/>
-    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12290" width="8.88671875" style="1"/>
-    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12546" width="8.88671875" style="1"/>
-    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12802" width="8.88671875" style="1"/>
-    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12813" max="13058" width="8.88671875" style="1"/>
-    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13314" width="8.88671875" style="1"/>
-    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13570" width="8.88671875" style="1"/>
-    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13826" width="8.88671875" style="1"/>
-    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13837" max="14082" width="8.88671875" style="1"/>
-    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14338" width="8.88671875" style="1"/>
-    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14594" width="8.88671875" style="1"/>
-    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14850" width="8.88671875" style="1"/>
-    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14861" max="15106" width="8.88671875" style="1"/>
-    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15362" width="8.88671875" style="1"/>
-    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15618" width="8.88671875" style="1"/>
-    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15874" width="8.88671875" style="1"/>
-    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15885" max="16130" width="8.88671875" style="1"/>
-    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
-        <v>44943</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
-    </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="15"/>
-    </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="15"/>
-    </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="9">
-        <v>10</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9">
-        <v>11</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="9">
-        <v>12</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="15"/>
-    </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="9">
-        <v>13</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="9">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="15"/>
-    </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="9">
-        <v>15</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="22">
-        <v>1</v>
-      </c>
-      <c r="C27" s="31">
-        <v>44942</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-    </row>
-    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-    </row>
-    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-    </row>
-    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-    </row>
-    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D86A510-FD8D-4CD3-9F32-9C8BD3FE871C}">
-  <dimension ref="B1:L35"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="258" width="8.88671875" style="1"/>
-    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
-    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="269" max="514" width="8.88671875" style="1"/>
-    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
-    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="525" max="770" width="8.88671875" style="1"/>
-    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
-    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="781" max="1026" width="8.88671875" style="1"/>
-    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1282" width="8.88671875" style="1"/>
-    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1538" width="8.88671875" style="1"/>
-    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1794" width="8.88671875" style="1"/>
-    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1805" max="2050" width="8.88671875" style="1"/>
-    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2306" width="8.88671875" style="1"/>
-    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2562" width="8.88671875" style="1"/>
-    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2818" width="8.88671875" style="1"/>
-    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2829" max="3074" width="8.88671875" style="1"/>
-    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3330" width="8.88671875" style="1"/>
-    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3586" width="8.88671875" style="1"/>
-    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3842" width="8.88671875" style="1"/>
-    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3853" max="4098" width="8.88671875" style="1"/>
-    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4354" width="8.88671875" style="1"/>
-    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4610" width="8.88671875" style="1"/>
-    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4866" width="8.88671875" style="1"/>
-    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4877" max="5122" width="8.88671875" style="1"/>
-    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5378" width="8.88671875" style="1"/>
-    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5634" width="8.88671875" style="1"/>
-    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5890" width="8.88671875" style="1"/>
-    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5901" max="6146" width="8.88671875" style="1"/>
-    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6402" width="8.88671875" style="1"/>
-    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6658" width="8.88671875" style="1"/>
-    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6914" width="8.88671875" style="1"/>
-    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6925" max="7170" width="8.88671875" style="1"/>
-    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7426" width="8.88671875" style="1"/>
-    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7682" width="8.88671875" style="1"/>
-    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7938" width="8.88671875" style="1"/>
-    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7949" max="8194" width="8.88671875" style="1"/>
-    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8450" width="8.88671875" style="1"/>
-    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8706" width="8.88671875" style="1"/>
-    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8962" width="8.88671875" style="1"/>
-    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8973" max="9218" width="8.88671875" style="1"/>
-    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9474" width="8.88671875" style="1"/>
-    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9730" width="8.88671875" style="1"/>
-    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9986" width="8.88671875" style="1"/>
-    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9997" max="10242" width="8.88671875" style="1"/>
-    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10498" width="8.88671875" style="1"/>
-    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10754" width="8.88671875" style="1"/>
-    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10765" max="11010" width="8.88671875" style="1"/>
-    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11266" width="8.88671875" style="1"/>
-    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11522" width="8.88671875" style="1"/>
-    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11778" width="8.88671875" style="1"/>
-    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11789" max="12034" width="8.88671875" style="1"/>
-    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12290" width="8.88671875" style="1"/>
-    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12546" width="8.88671875" style="1"/>
-    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12802" width="8.88671875" style="1"/>
-    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12813" max="13058" width="8.88671875" style="1"/>
-    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13314" width="8.88671875" style="1"/>
-    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13570" width="8.88671875" style="1"/>
-    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13826" width="8.88671875" style="1"/>
-    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13837" max="14082" width="8.88671875" style="1"/>
-    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14338" width="8.88671875" style="1"/>
-    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14594" width="8.88671875" style="1"/>
-    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14850" width="8.88671875" style="1"/>
-    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14861" max="15106" width="8.88671875" style="1"/>
-    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15362" width="8.88671875" style="1"/>
-    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15618" width="8.88671875" style="1"/>
-    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15874" width="8.88671875" style="1"/>
-    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15885" max="16130" width="8.88671875" style="1"/>
-    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
-        <v>44943</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
-    </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="15"/>
-    </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="15"/>
-    </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="9">
-        <v>10</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9">
-        <v>11</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="9">
-        <v>12</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="15"/>
-    </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="9">
-        <v>13</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="9">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="15"/>
-    </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="9">
-        <v>15</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="22">
-        <v>1</v>
-      </c>
-      <c r="C27" s="31">
-        <v>44942</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-    </row>
-    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-    </row>
-    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-    </row>
-    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-    </row>
-    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C032AE7F-838F-4072-B527-A827ADB21ED7}">
-  <dimension ref="B1:L35"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="258" width="8.88671875" style="1"/>
-    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
-    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="269" max="514" width="8.88671875" style="1"/>
-    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
-    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="525" max="770" width="8.88671875" style="1"/>
-    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
-    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="781" max="1026" width="8.88671875" style="1"/>
-    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1282" width="8.88671875" style="1"/>
-    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1538" width="8.88671875" style="1"/>
-    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1794" width="8.88671875" style="1"/>
-    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1805" max="2050" width="8.88671875" style="1"/>
-    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2306" width="8.88671875" style="1"/>
-    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2562" width="8.88671875" style="1"/>
-    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2818" width="8.88671875" style="1"/>
-    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2829" max="3074" width="8.88671875" style="1"/>
-    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3330" width="8.88671875" style="1"/>
-    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3586" width="8.88671875" style="1"/>
-    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3842" width="8.88671875" style="1"/>
-    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3853" max="4098" width="8.88671875" style="1"/>
-    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4354" width="8.88671875" style="1"/>
-    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4610" width="8.88671875" style="1"/>
-    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4866" width="8.88671875" style="1"/>
-    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4877" max="5122" width="8.88671875" style="1"/>
-    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5378" width="8.88671875" style="1"/>
-    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5634" width="8.88671875" style="1"/>
-    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5890" width="8.88671875" style="1"/>
-    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5901" max="6146" width="8.88671875" style="1"/>
-    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6402" width="8.88671875" style="1"/>
-    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6658" width="8.88671875" style="1"/>
-    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6914" width="8.88671875" style="1"/>
-    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6925" max="7170" width="8.88671875" style="1"/>
-    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7426" width="8.88671875" style="1"/>
-    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7682" width="8.88671875" style="1"/>
-    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7938" width="8.88671875" style="1"/>
-    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7949" max="8194" width="8.88671875" style="1"/>
-    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8450" width="8.88671875" style="1"/>
-    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8706" width="8.88671875" style="1"/>
-    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8962" width="8.88671875" style="1"/>
-    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8973" max="9218" width="8.88671875" style="1"/>
-    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9474" width="8.88671875" style="1"/>
-    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9730" width="8.88671875" style="1"/>
-    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9986" width="8.88671875" style="1"/>
-    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9997" max="10242" width="8.88671875" style="1"/>
-    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10498" width="8.88671875" style="1"/>
-    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10754" width="8.88671875" style="1"/>
-    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10765" max="11010" width="8.88671875" style="1"/>
-    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11266" width="8.88671875" style="1"/>
-    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11522" width="8.88671875" style="1"/>
-    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11778" width="8.88671875" style="1"/>
-    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11789" max="12034" width="8.88671875" style="1"/>
-    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12290" width="8.88671875" style="1"/>
-    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12546" width="8.88671875" style="1"/>
-    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12802" width="8.88671875" style="1"/>
-    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12813" max="13058" width="8.88671875" style="1"/>
-    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13314" width="8.88671875" style="1"/>
-    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13570" width="8.88671875" style="1"/>
-    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13826" width="8.88671875" style="1"/>
-    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13837" max="14082" width="8.88671875" style="1"/>
-    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14338" width="8.88671875" style="1"/>
-    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14594" width="8.88671875" style="1"/>
-    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14850" width="8.88671875" style="1"/>
-    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14861" max="15106" width="8.88671875" style="1"/>
-    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15362" width="8.88671875" style="1"/>
-    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15618" width="8.88671875" style="1"/>
-    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15874" width="8.88671875" style="1"/>
-    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15885" max="16130" width="8.88671875" style="1"/>
-    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
-        <v>44943</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
-    </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="15"/>
-    </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="15"/>
-    </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="9">
-        <v>10</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9">
-        <v>11</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="9">
-        <v>12</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="15"/>
-    </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="9">
-        <v>13</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="9">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="15"/>
-    </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="9">
-        <v>15</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="22">
-        <v>1</v>
-      </c>
-      <c r="C27" s="31">
-        <v>44942</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-    </row>
-    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-    </row>
-    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-    </row>
-    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-    </row>
-    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C890CB-18E4-40B2-9651-A2DA974FF74E}">
-  <dimension ref="B1:L35"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6961,7 +3460,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>14</v>
@@ -6986,7 +3485,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -7052,18 +3551,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>49</v>
@@ -7084,13 +3583,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>90</v>
@@ -7099,23 +3598,25 @@
         <v>32</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="15"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="14" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>90</v>
@@ -7134,18 +3635,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -7157,16 +3660,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -7186,13 +3689,13 @@
         <v>73</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>74</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="29"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -7209,13 +3712,13 @@
         <v>66</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -7226,11 +3729,17 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -7243,45 +3752,69 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+        <v>122</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="15"/>
+      <c r="L14" s="15" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9">
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="15"/>
+      <c r="L15" s="15" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9">
         <v>11</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -7527,12 +4060,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8C82F5-4572-4347-A743-8C9DA75DDF73}">
-  <dimension ref="B1:L35"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C890CB-18E4-40B2-9651-A2DA974FF74E}">
+  <dimension ref="B1:O35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8188,7 +4721,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>14</v>
@@ -8213,7 +4746,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -8279,18 +4812,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>49</v>
@@ -8311,13 +4844,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>90</v>
@@ -8326,23 +4859,25 @@
         <v>32</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="15"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="14" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>90</v>
@@ -8361,18 +4896,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -8384,16 +4921,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -8407,16 +4944,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="29"/>
@@ -8430,16 +4967,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -8453,11 +4990,17 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -8470,11 +5013,17 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+        <v>142</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -8487,11 +5036,17 @@
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+        <v>147</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>152</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -8503,48 +5058,76 @@
       <c r="B16" s="9">
         <v>11</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L16" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="15"/>
-    </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L17" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9">
         <v>13</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9">
         <v>14</v>
       </c>
@@ -8559,7 +5142,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9">
         <v>15</v>
       </c>
@@ -8574,7 +5157,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="11">
         <v>16</v>
       </c>
@@ -8589,12 +5172,44 @@
       <c r="K21" s="6"/>
       <c r="L21" s="16"/>
     </row>
-    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="19" t="s">
         <v>18</v>
       </c>
@@ -8615,7 +5230,7 @@
       <c r="K26" s="20"/>
       <c r="L26" s="21"/>
     </row>
-    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="22">
         <v>1</v>
       </c>
@@ -8634,7 +5249,7 @@
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
     </row>
-    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -8647,7 +5262,7 @@
       <c r="K28" s="23"/>
       <c r="L28" s="24"/>
     </row>
-    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="22"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -8660,7 +5275,7 @@
       <c r="K29" s="23"/>
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -8673,7 +5288,7 @@
       <c r="K30" s="23"/>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -8686,7 +5301,7 @@
       <c r="K31" s="23"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -8754,12 +5369,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8EB703-C647-4240-9B71-09FEDD5E4BD9}">
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K18" sqref="K18:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9415,7 +6030,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>14</v>
@@ -9440,7 +6055,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -9511,13 +6126,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>49</v>
@@ -9538,20 +6153,18 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -9563,13 +6176,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>90</v>
@@ -9588,18 +6201,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -9611,11 +6226,17 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -9628,13 +6249,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="29"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -9645,43 +6272,69 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+        <v>122</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="15"/>
+      <c r="L12" s="15" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="15"/>
+      <c r="L13" s="15" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -9726,7 +6379,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -9943,12 +6596,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9957,12 +6610,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD12804-0DC3-4CAE-BB11-B7F71BC83389}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB2844D-481E-4E8E-BE7A-07648C8A8E13}">
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10618,6 +7271,1221 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="38">
+        <v>44942</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="41"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="22">
+        <v>1</v>
+      </c>
+      <c r="C27" s="31">
+        <v>44942</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD12804-0DC3-4CAE-BB11-B7F71BC83389}">
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="34" t="s">
@@ -11181,7 +9049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C88C26-5956-4029-B804-7914EE01B7F4}">
   <dimension ref="B1:L35"/>
   <sheetViews>
@@ -12110,7 +9978,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>

--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS500516\Documents\workspace\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8002A70E-BD4B-4A6B-9077-90B7592D588A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2FB7C6-A7EA-4841-8B7A-362F19D11AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="영상" sheetId="3" r:id="rId3"/>
     <sheet name="쇼츠" sheetId="10" r:id="rId4"/>
     <sheet name="구매내역" sheetId="15" r:id="rId5"/>
-    <sheet name="게시글" sheetId="6" r:id="rId6"/>
-    <sheet name="댓글" sheetId="7" r:id="rId7"/>
+    <sheet name="게시글" sheetId="16" r:id="rId6"/>
+    <sheet name="댓글" sheetId="17" r:id="rId7"/>
+    <sheet name="추천" sheetId="18" r:id="rId8"/>
+    <sheet name="첨부파일" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="190">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -247,10 +249,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>일렬번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>src</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -386,10 +384,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_nickname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(256)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -402,10 +396,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>b_update_date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -478,22 +468,12 @@
     <t>댓글내용</t>
   </si>
   <si>
-    <t>r_nickname</t>
-  </si>
-  <si>
-    <t>닉네임</t>
-  </si>
-  <si>
     <t>큰정수형</t>
   </si>
   <si>
     <t>게시글번호</t>
   </si>
   <si>
-    <t>board_content 의 b_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>r_code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -526,131 +506,278 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>이미지코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>default current_timestamp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_reg_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_start_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_reg_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_start_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_src</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_delete_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user 테이블의 username </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_series</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_delete_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> DATETIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼츠코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장파일명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_save_file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매내역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(500)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_reg_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_pay_method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저이름, 게시판코드, 카테고리코드 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전유영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(b_code)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 파일 import</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_upvote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_views</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글의 정보를 저장하는 테이블(사용자정보:게시글  = 1:N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모댓글번호 칼럼 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>PRIMARY KEY(r_update_date, r_nickname)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>default current_timestamp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_reg_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_start_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_reg_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_start_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh_src</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_delete_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">user 테이블의 username </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_series</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_delete_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> DATETIME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇼츠코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장파일명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_save_file</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매내역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제일시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(500)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(500)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제방법</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_reg_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_pay_method</t>
+  </si>
+  <si>
+    <t>대댓글일 경우 부모댓글번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_parent_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모댓글번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 게시글에 포함된 댓글 및 대댓글 테이블(게시글:댓글 = 1:N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(b_code, username)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 추천한 게시글을 저장하는 테이블(게시글:추천 = 1:N, 사용자정보:추천 = 1:N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>upvote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_ext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_save_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글가변문자열(256)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장파일이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_original_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래파일이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 게시글의 첨부파일을 저장하는 테이블(게시글:첨부파일 = 1:N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +839,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1087,13 +1214,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1219,6 +1370,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1562,6 +1737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2320,13 +2496,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
@@ -2347,13 +2523,13 @@
         <v>30</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>32</v>
@@ -2372,13 +2548,13 @@
         <v>33</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2422,13 +2598,13 @@
         <v>41</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -2491,13 +2667,13 @@
         <v>47</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -2511,13 +2687,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>46</v>
@@ -2668,7 +2844,7 @@
         <v>44942</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -2801,9 +2977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8C82F5-4572-4347-A743-8C9DA75DDF73}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3460,7 +3637,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>14</v>
@@ -3485,7 +3662,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -3556,19 +3733,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>28</v>
@@ -3583,16 +3760,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>32</v>
@@ -3602,7 +3779,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="14" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3610,16 +3787,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>32</v>
@@ -3635,16 +3812,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>32</v>
@@ -3660,16 +3837,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -3683,16 +3860,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -3706,13 +3883,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>49</v>
@@ -3729,13 +3906,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>46</v>
@@ -3752,16 +3929,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -3769,7 +3946,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3777,16 +3954,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E15" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -3794,7 +3971,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3802,16 +3979,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="30"/>
@@ -3929,7 +4106,7 @@
         <v>44942</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -4062,6 +4239,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C890CB-18E4-40B2-9651-A2DA974FF74E}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:O35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4817,19 +4995,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>28</v>
@@ -4844,16 +5022,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>32</v>
@@ -4863,7 +5041,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="14" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4871,16 +5049,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>32</v>
@@ -4896,16 +5074,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>32</v>
@@ -4921,16 +5099,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -4944,13 +5122,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>46</v>
@@ -4967,16 +5145,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -4990,13 +5168,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>49</v>
@@ -5013,16 +5191,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -5036,16 +5214,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -5059,16 +5237,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -5076,7 +5254,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5084,16 +5262,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -5101,7 +5279,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5109,16 +5287,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="30"/>
@@ -5238,7 +5416,7 @@
         <v>44942</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -5371,6 +5549,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8EB703-C647-4240-9B71-09FEDD5E4BD9}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -6030,7 +6209,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>14</v>
@@ -6055,7 +6234,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -6126,19 +6305,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>28</v>
@@ -6153,13 +6332,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>49</v>
@@ -6176,16 +6355,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>32</v>
@@ -6201,16 +6380,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>32</v>
@@ -6226,16 +6405,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -6249,13 +6428,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>49</v>
@@ -6272,16 +6451,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -6289,7 +6468,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6297,16 +6476,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -6314,7 +6493,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6322,16 +6501,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="30"/>
@@ -6612,10 +6791,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB2844D-481E-4E8E-BE7A-07648C8A8E13}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7271,7 +7451,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>14</v>
@@ -7296,7 +7476,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -7367,19 +7547,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>28</v>
@@ -7397,13 +7577,13 @@
         <v>26</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -7419,13 +7599,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>49</v>
@@ -7442,13 +7622,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>49</v>
@@ -7465,16 +7645,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -7482,7 +7662,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7490,16 +7670,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>32</v>
@@ -7811,12 +7991,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7826,11 +8006,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD12804-0DC3-4CAE-BB11-B7F71BC83389}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FF823B-FB0D-4045-8343-C9225BEE78BA}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7844,9 +8025,9 @@
     <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="258" width="8.88671875" style="1"/>
     <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
     <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -8486,7 +8667,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>14</v>
@@ -8511,7 +8692,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -8531,7 +8712,9 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="32" t="s">
+        <v>162</v>
+      </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
@@ -8582,19 +8765,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>87</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>28</v>
@@ -8602,46 +8785,52 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="14"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="15"/>
+      <c r="J7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="G8" s="10"/>
       <c r="I8" s="10"/>
@@ -8657,13 +8846,13 @@
         <v>21</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -8677,19 +8866,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -8703,36 +8892,38 @@
         <v>19</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="15"/>
+      <c r="L11" s="15" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -8746,16 +8937,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="E13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -8768,12 +8959,22 @@
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>158</v>
+      </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -8783,12 +8984,22 @@
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>158</v>
+      </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -8798,16 +9009,26 @@
       <c r="B16" s="9">
         <v>11</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="15"/>
+      <c r="L16" s="15" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
@@ -8818,7 +9039,9 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -8918,7 +9141,7 @@
         <v>44942</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -8930,10 +9153,18 @@
       <c r="L27" s="24"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="22">
+        <v>2</v>
+      </c>
+      <c r="C28" s="31">
+        <v>44946</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>152</v>
+      </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
@@ -9050,11 +9281,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C88C26-5956-4029-B804-7914EE01B7F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B9802E-DAEF-4E87-B108-68237DF18B12}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9710,7 +9942,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>14</v>
@@ -9735,7 +9967,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -9755,7 +9987,9 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="32" t="s">
+        <v>168</v>
+      </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
@@ -9806,19 +10040,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>28</v>
@@ -9833,64 +10067,72 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="15" t="s">
-        <v>118</v>
-      </c>
+      <c r="J7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="30"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="15"/>
+      <c r="J8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -9904,16 +10146,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -9927,16 +10169,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -9950,16 +10192,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -9972,18 +10214,26 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="15"/>
+      <c r="L13" s="15" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
@@ -9994,7 +10244,9 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -10139,7 +10391,7 @@
         <v>44942</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -10151,10 +10403,18 @@
       <c r="L27" s="24"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="22">
+        <v>2</v>
+      </c>
+      <c r="C28" s="31">
+        <v>44946</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>163</v>
+      </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
@@ -10268,4 +10528,2402 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B4BC0C-57ED-4576-938B-B0E71E7C73E0}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="38">
+        <v>44946</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="41"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="42"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="22"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F11370-F53C-4B4B-A245-1E1676B40E78}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="38">
+        <v>44946</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="41"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="22"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS500516\Documents\workspace\HowDo\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2FB7C6-A7EA-4841-8B7A-362F19D11AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC47039F-983E-47F6-B6E1-88974CB86EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="190">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -313,13 +313,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AUTO_INCREMENT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
     <t>가변문자열(50)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -404,18 +397,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_modified_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>삭제일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_remove_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>b_code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -444,340 +429,358 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>r_remove_date</t>
-  </si>
-  <si>
     <t>삭제일자</t>
   </si>
   <si>
-    <t>r_modified_date</t>
-  </si>
-  <si>
     <t>수정일자</t>
   </si>
   <si>
+    <t>작성일자</t>
+  </si>
+  <si>
+    <t>r_content</t>
+  </si>
+  <si>
+    <t>댓글내용</t>
+  </si>
+  <si>
+    <t>게시글번호</t>
+  </si>
+  <si>
+    <t>r_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼츠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shorts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_reg_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_start_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_reg_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_start_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_src</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_delete_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_series</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_delete_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> DATETIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼츠코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장파일명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_save_file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매내역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(500)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_reg_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_pay_method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저이름, 게시판코드, 카테고리코드 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전유영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(b_code)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_upvote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_views</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글의 정보를 저장하는 테이블(사용자정보:게시글  = 1:N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모댓글번호 칼럼 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글일 경우 부모댓글번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_parent_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모댓글번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 게시글에 포함된 댓글 및 대댓글 테이블(게시글:댓글 = 1:N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(b_code, username)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 추천한 게시글을 저장하는 테이블(게시글:추천 = 1:N, 사용자정보:추천 = 1:N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>upvote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_ext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_save_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글가변문자열(256)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장파일이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_original_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래파일이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 게시글의 첨부파일을 저장하는 테이블(게시글:첨부파일 = 1:N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(r_code)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(256)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 파일 import </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_delete_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_create_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_create_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>r_update_date</t>
-  </si>
-  <si>
-    <t>작성일자</t>
-  </si>
-  <si>
-    <t>r_content</t>
-  </si>
-  <si>
-    <t>댓글내용</t>
-  </si>
-  <si>
-    <t>큰정수형</t>
-  </si>
-  <si>
-    <t>게시글번호</t>
-  </si>
-  <si>
-    <t>r_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇼츠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shorts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>default current_timestamp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_reg_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_start_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_reg_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_start_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh_src</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_delete_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">user 테이블의 username </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리즈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_series</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_delete_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> DATETIME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇼츠코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장파일명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_save_file</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매내역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제일시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(500)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(500)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제방법</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_reg_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_pay_method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저이름, 게시판코드, 카테고리코드 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전유영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY(b_code)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 파일 import</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_upvote</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_views</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글의 정보를 저장하는 테이블(사용자정보:게시글  = 1:N)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부모댓글번호 칼럼 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY(r_update_date, r_nickname)</t>
-  </si>
-  <si>
-    <t>대댓글일 경우 부모댓글번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_parent_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부모댓글번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 게시글에 포함된 댓글 및 대댓글 테이블(게시글:댓글 = 1:N)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY(b_code, username)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 추천한 게시글을 저장하는 테이블(게시글:추천 = 1:N, 사용자정보:추천 = 1:N)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>upvote</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_ext</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일종류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_save_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글가변문자열(256)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장파일이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_original_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원래파일이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>업로드일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 게시글의 첨부파일을 저장하는 테이블(게시글:첨부파일 = 1:N)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attach</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨부파일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_delete_date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -839,7 +842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1238,6 +1241,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1341,6 +1383,18 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1371,29 +1425,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1740,8 +1782,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:L6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2399,20 +2441,20 @@
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44942</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -2424,34 +2466,34 @@
       <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2496,13 +2538,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
@@ -2523,13 +2565,13 @@
         <v>30</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>32</v>
@@ -2548,13 +2590,13 @@
         <v>33</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2598,13 +2640,13 @@
         <v>41</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -2667,13 +2709,13 @@
         <v>47</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -2693,7 +2735,7 @@
         <v>44</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>46</v>
@@ -2844,7 +2886,7 @@
         <v>44942</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -2980,8 +3022,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3637,22 +3679,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44942</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3662,36 +3704,36 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3728,58 +3770,62 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="14"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="32" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="14" t="s">
-        <v>134</v>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3790,13 +3836,13 @@
         <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>32</v>
@@ -3815,13 +3861,13 @@
         <v>59</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>32</v>
@@ -3843,7 +3889,7 @@
         <v>68</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>69</v>
@@ -3863,13 +3909,13 @@
         <v>56</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -3889,7 +3935,7 @@
         <v>65</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>49</v>
@@ -3912,7 +3958,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>46</v>
@@ -3929,16 +3975,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -3946,7 +3992,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="15" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3954,16 +4000,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -3971,7 +4017,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="15" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3979,16 +4025,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="30"/>
@@ -4106,7 +4152,7 @@
         <v>44942</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -4241,6 +4287,1320 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C890CB-18E4-40B2-9651-A2DA974FF74E}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:O35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
+        <v>44942</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="45"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="22">
+        <v>1</v>
+      </c>
+      <c r="C27" s="31">
+        <v>44942</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8EB703-C647-4240-9B71-09FEDD5E4BD9}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
@@ -4899,22 +6259,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44942</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -4924,36 +6284,36 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4990,58 +6350,60 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="28" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="14"/>
+      <c r="L6" s="32" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="14" t="s">
-        <v>134</v>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5052,13 +6414,13 @@
         <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>32</v>
@@ -5077,13 +6439,13 @@
         <v>59</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>32</v>
@@ -5099,22 +6461,26 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5122,22 +6488,26 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="29"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="J11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5145,86 +6515,94 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="15"/>
+      <c r="J12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="15"/>
+      <c r="J13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="J14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>145</v>
-      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -5236,76 +6614,48 @@
       <c r="B16" s="9">
         <v>11</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>132</v>
-      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>132</v>
-      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9">
         <v>13</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>98</v>
-      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9">
         <v>14</v>
       </c>
@@ -5320,7 +6670,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9">
         <v>15</v>
       </c>
@@ -5335,7 +6685,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="11">
         <v>16</v>
       </c>
@@ -5350,44 +6700,12 @@
       <c r="K21" s="6"/>
       <c r="L21" s="16"/>
     </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-    </row>
-    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-    </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="19" t="s">
         <v>18</v>
       </c>
@@ -5408,7 +6726,7 @@
       <c r="K26" s="20"/>
       <c r="L26" s="21"/>
     </row>
-    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="22">
         <v>1</v>
       </c>
@@ -5416,7 +6734,7 @@
         <v>44942</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -5427,7 +6745,7 @@
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
     </row>
-    <row r="28" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -5440,7 +6758,7 @@
       <c r="K28" s="23"/>
       <c r="L28" s="24"/>
     </row>
-    <row r="29" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="22"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -5453,7 +6771,7 @@
       <c r="K29" s="23"/>
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -5466,7 +6784,7 @@
       <c r="K30" s="23"/>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -5479,7 +6797,7 @@
       <c r="K31" s="23"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -5547,13 +6865,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8EB703-C647-4240-9B71-09FEDD5E4BD9}">
-  <sheetPr codeName="Sheet4"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB2844D-481E-4E8E-BE7A-07648C8A8E13}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:K19"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6209,22 +7527,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44942</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -6234,36 +7552,36 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -6305,1356 +7623,130 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="14"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="32" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="15"/>
+      <c r="J7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="15"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="15"/>
+      <c r="J9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9">
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="9">
-        <v>10</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9">
-        <v>11</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="9">
-        <v>12</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="15"/>
-    </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="9">
-        <v>13</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="9">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="15"/>
-    </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="9">
-        <v>15</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="22">
-        <v>1</v>
-      </c>
-      <c r="C27" s="31">
-        <v>44942</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-    </row>
-    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-    </row>
-    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-    </row>
-    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-    </row>
-    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB2844D-481E-4E8E-BE7A-07648C8A8E13}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="B1:L35"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="258" width="8.88671875" style="1"/>
-    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
-    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="269" max="514" width="8.88671875" style="1"/>
-    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
-    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="525" max="770" width="8.88671875" style="1"/>
-    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
-    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="781" max="1026" width="8.88671875" style="1"/>
-    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1282" width="8.88671875" style="1"/>
-    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1538" width="8.88671875" style="1"/>
-    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1794" width="8.88671875" style="1"/>
-    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1805" max="2050" width="8.88671875" style="1"/>
-    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2306" width="8.88671875" style="1"/>
-    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2562" width="8.88671875" style="1"/>
-    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2818" width="8.88671875" style="1"/>
-    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2829" max="3074" width="8.88671875" style="1"/>
-    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3330" width="8.88671875" style="1"/>
-    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3586" width="8.88671875" style="1"/>
-    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3842" width="8.88671875" style="1"/>
-    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3853" max="4098" width="8.88671875" style="1"/>
-    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4354" width="8.88671875" style="1"/>
-    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4610" width="8.88671875" style="1"/>
-    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4866" width="8.88671875" style="1"/>
-    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4877" max="5122" width="8.88671875" style="1"/>
-    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5378" width="8.88671875" style="1"/>
-    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5634" width="8.88671875" style="1"/>
-    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5890" width="8.88671875" style="1"/>
-    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5901" max="6146" width="8.88671875" style="1"/>
-    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6402" width="8.88671875" style="1"/>
-    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6658" width="8.88671875" style="1"/>
-    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6914" width="8.88671875" style="1"/>
-    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6925" max="7170" width="8.88671875" style="1"/>
-    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7426" width="8.88671875" style="1"/>
-    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7682" width="8.88671875" style="1"/>
-    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7938" width="8.88671875" style="1"/>
-    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7949" max="8194" width="8.88671875" style="1"/>
-    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8450" width="8.88671875" style="1"/>
-    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8706" width="8.88671875" style="1"/>
-    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8962" width="8.88671875" style="1"/>
-    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8973" max="9218" width="8.88671875" style="1"/>
-    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9474" width="8.88671875" style="1"/>
-    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9730" width="8.88671875" style="1"/>
-    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9986" width="8.88671875" style="1"/>
-    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9997" max="10242" width="8.88671875" style="1"/>
-    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10498" width="8.88671875" style="1"/>
-    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10754" width="8.88671875" style="1"/>
-    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10765" max="11010" width="8.88671875" style="1"/>
-    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11266" width="8.88671875" style="1"/>
-    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11522" width="8.88671875" style="1"/>
-    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11778" width="8.88671875" style="1"/>
-    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11789" max="12034" width="8.88671875" style="1"/>
-    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12290" width="8.88671875" style="1"/>
-    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12546" width="8.88671875" style="1"/>
-    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12802" width="8.88671875" style="1"/>
-    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12813" max="13058" width="8.88671875" style="1"/>
-    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13314" width="8.88671875" style="1"/>
-    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13570" width="8.88671875" style="1"/>
-    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13826" width="8.88671875" style="1"/>
-    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13837" max="14082" width="8.88671875" style="1"/>
-    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14338" width="8.88671875" style="1"/>
-    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14594" width="8.88671875" style="1"/>
-    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14850" width="8.88671875" style="1"/>
-    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14861" max="15106" width="8.88671875" style="1"/>
-    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15362" width="8.88671875" style="1"/>
-    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15618" width="8.88671875" style="1"/>
-    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15874" width="8.88671875" style="1"/>
-    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15885" max="16130" width="8.88671875" style="1"/>
-    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
-        <v>44942</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
-    </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -7662,7 +7754,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7670,16 +7762,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>32</v>
@@ -8011,7 +8103,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8667,22 +8759,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44942</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -8692,38 +8784,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -8765,43 +8857,43 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="E6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="28" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="42"/>
+      <c r="L6" s="32" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -8824,13 +8916,13 @@
         <v>59</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="F8" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" s="10"/>
       <c r="I8" s="10"/>
@@ -8846,10 +8938,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>69</v>
@@ -8869,20 +8961,22 @@
         <v>56</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="15"/>
+      <c r="L10" s="15" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
@@ -8892,13 +8986,13 @@
         <v>19</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -8906,7 +9000,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="15" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8914,39 +9008,41 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="15"/>
+      <c r="L12" s="15" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -8963,17 +9059,17 @@
         <v>57</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -8985,20 +9081,20 @@
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -9010,16 +9106,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -9027,7 +9123,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="15" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9040,7 +9136,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -9160,10 +9256,10 @@
         <v>44946</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -9286,7 +9382,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9942,22 +10038,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44942</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -9967,38 +10063,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -10040,70 +10136,72 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="28" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="14"/>
+      <c r="L6" s="32" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="30"/>
@@ -10123,16 +10221,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -10146,62 +10244,66 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="15"/>
+      <c r="L10" s="15" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="15"/>
+      <c r="L11" s="15" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -10215,16 +10317,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -10232,7 +10334,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="15" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10245,7 +10347,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -10410,10 +10512,10 @@
         <v>44946</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -10536,7 +10638,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:L4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11192,22 +11294,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44946</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -11217,38 +11319,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="K3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -11290,16 +11392,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="10" t="s">
@@ -11307,28 +11409,30 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="42"/>
+        <v>92</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
@@ -11353,12 +11457,12 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="41"/>
+      <c r="G8" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="45"/>
       <c r="K8" s="10"/>
       <c r="L8" s="15"/>
     </row>
@@ -11398,7 +11502,9 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>182</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -11722,8 +11828,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12379,22 +12485,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44946</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -12404,38 +12510,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="K3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -12477,96 +12583,100 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="14"/>
+      <c r="L6" s="32" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="49"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="15"/>
+      <c r="L8" s="15" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="49"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -12577,16 +12687,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -12600,16 +12710,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -12622,14 +12732,14 @@
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="45"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="10"/>
       <c r="L12" s="15"/>
     </row>
@@ -12637,12 +12747,14 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -12652,12 +12764,12 @@
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -12667,12 +12779,12 @@
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -12912,8 +13024,7 @@
       <c r="L35" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G12:J12"/>
+  <mergeCells count="6">
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>

--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\HowDo\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\Academy\workspace\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC47039F-983E-47F6-B6E1-88974CB86EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D1186F-2695-49C4-B112-3545B093D6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="390" windowWidth="21960" windowHeight="15240" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="댓글" sheetId="17" r:id="rId7"/>
     <sheet name="추천" sheetId="18" r:id="rId8"/>
     <sheet name="첨부파일" sheetId="19" r:id="rId9"/>
+    <sheet name="시청기록" sheetId="21" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="205">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -483,18 +484,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>i_reg_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>i_price</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>i_start_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>v_reg_date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -587,10 +580,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>p_reg_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>p_pay_method</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -781,6 +770,77 @@
   </si>
   <si>
     <t>r_delete_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_create_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_update_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_create_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_update_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_views</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_create_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_update_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_delete_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>시청기록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_history</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청기록 코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1395,6 +1455,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1426,15 +1495,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1782,8 +1842,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2441,20 +2501,20 @@
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="40" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="45">
         <v>44942</v>
       </c>
-      <c r="K2" s="43"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -2466,34 +2526,34 @@
       <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="41" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="44" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="45"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2735,7 +2795,7 @@
         <v>44</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>46</v>
@@ -3017,13 +3077,1220 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C9F1EA-2D5A-4F70-AE0F-88107F8CAB18}">
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="45">
+        <v>44946</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="48"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="22"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8C82F5-4572-4347-A743-8C9DA75DDF73}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3681,20 +4948,20 @@
       <c r="C2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="40" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="45">
         <v>44942</v>
       </c>
-      <c r="K2" s="43"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3706,34 +4973,34 @@
       <c r="C3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="41" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="44" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="45"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3790,11 +5057,11 @@
       <c r="H6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
       <c r="L6" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3958,7 +5225,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>46</v>
@@ -3978,13 +5245,13 @@
         <v>108</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -3992,7 +5259,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4003,13 +5270,13 @@
         <v>109</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -4017,7 +5284,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4031,7 +5298,7 @@
         <v>93</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>94</v>
@@ -4288,8 +5555,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:O35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4947,20 +6214,20 @@
       <c r="C2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="40" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="45">
         <v>44942</v>
       </c>
-      <c r="K2" s="43"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -4972,34 +6239,34 @@
       <c r="C3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="41" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="44" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="45"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -5056,11 +6323,11 @@
       <c r="H6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
       <c r="L6" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5241,13 +6508,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>86</v>
@@ -5264,16 +6531,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -5290,13 +6557,13 @@
         <v>108</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -5304,7 +6571,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5315,13 +6582,13 @@
         <v>109</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -5329,7 +6596,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5343,7 +6610,7 @@
         <v>93</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>94</v>
@@ -5602,8 +6869,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" topLeftCell="C2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6261,20 +7528,20 @@
       <c r="C2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="40" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="45">
         <v>44942</v>
       </c>
-      <c r="K2" s="43"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -6286,34 +7553,34 @@
       <c r="C3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="41" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="44" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="45"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -6355,13 +7622,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>86</v>
@@ -6374,7 +7641,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6403,7 +7670,7 @@
         <v>58</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6417,7 +7684,7 @@
         <v>85</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>86</v>
@@ -6442,7 +7709,7 @@
         <v>85</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>86</v>
@@ -6467,7 +7734,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>71</v>
@@ -6494,7 +7761,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>49</v>
@@ -6518,13 +7785,13 @@
         <v>108</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -6533,10 +7800,10 @@
         <v>53</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6547,13 +7814,13 @@
         <v>109</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -6562,10 +7829,10 @@
         <v>53</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6579,7 +7846,7 @@
         <v>93</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>94</v>
@@ -6591,7 +7858,7 @@
         <v>53</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L14" s="15"/>
     </row>
@@ -6871,7 +8138,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="F10" sqref="F10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7527,22 +8794,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="40" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="45">
         <v>44942</v>
       </c>
-      <c r="K2" s="43"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -7552,36 +8819,36 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="44" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="45"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -7623,13 +8890,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>86</v>
@@ -7638,11 +8905,11 @@
       <c r="H6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
       <c r="L6" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7692,15 +8959,15 @@
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="48"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="10" t="s">
         <v>74</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="49" t="s">
-        <v>181</v>
+      <c r="L8" s="38" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7729,7 +8996,7 @@
         <v>58</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7737,16 +9004,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -7754,7 +9021,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7762,13 +9029,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>93</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>94</v>
@@ -8103,7 +9370,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8761,20 +10028,20 @@
       <c r="C2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="40" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="45">
         <v>44942</v>
       </c>
-      <c r="K2" s="43"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -8786,36 +10053,36 @@
       <c r="C3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="41" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="44" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="45"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="C4" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -8876,7 +10143,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8975,7 +10242,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8989,10 +10256,10 @@
         <v>93</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -9000,7 +10267,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9017,7 +10284,7 @@
         <v>89</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -9025,7 +10292,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9039,7 +10306,7 @@
         <v>93</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>94</v>
@@ -9062,14 +10329,14 @@
         <v>84</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -9081,20 +10348,20 @@
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -9106,13 +10373,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>93</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>94</v>
@@ -9123,7 +10390,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9136,7 +10403,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -9256,10 +10523,10 @@
         <v>44946</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -9382,7 +10649,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10040,20 +11307,20 @@
       <c r="C2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="40" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="45">
         <v>44942</v>
       </c>
-      <c r="K2" s="43"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -10065,36 +11332,36 @@
       <c r="C3" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="41" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="44" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="45"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="C4" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -10155,7 +11422,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10184,7 +11451,7 @@
         <v>92</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10250,10 +11517,10 @@
         <v>93</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -10261,7 +11528,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10275,10 +11542,10 @@
         <v>93</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -10286,7 +11553,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10300,7 +11567,7 @@
         <v>93</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>94</v>
@@ -10317,16 +11584,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -10334,7 +11601,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10347,7 +11614,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -10512,10 +11779,10 @@
         <v>44946</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -10638,7 +11905,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11294,22 +12561,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="40" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="45">
         <v>44946</v>
       </c>
-      <c r="K2" s="43"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -11319,38 +12586,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="K3" s="45"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="48"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="C4" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -11392,7 +12659,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>85</v>
@@ -11415,7 +12682,7 @@
         <v>92</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11457,12 +12724,12 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="45"/>
+      <c r="G8" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="48"/>
       <c r="K8" s="10"/>
       <c r="L8" s="15"/>
     </row>
@@ -11503,7 +12770,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -11828,8 +13095,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12485,22 +13752,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="40" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="42">
+      <c r="I2" s="43"/>
+      <c r="J2" s="45">
         <v>44946</v>
       </c>
-      <c r="K2" s="43"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -12510,38 +13777,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="K3" s="45"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="48"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="C4" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -12586,10 +13853,10 @@
         <v>83</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>86</v>
@@ -12602,7 +13869,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12610,10 +13877,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>92</v>
@@ -12631,7 +13898,7 @@
         <v>92</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12639,16 +13906,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="35"/>
@@ -12656,7 +13923,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12664,13 +13931,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>86</v>
@@ -12687,13 +13954,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>86</v>
@@ -12710,16 +13977,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -12751,7 +14018,7 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
@@ -13025,12 +14292,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS500516\Documents\workspace\HowDo\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc\Documents\programming\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2FB7C6-A7EA-4841-8B7A-362F19D11AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC84E6C-DD83-41DB-B9CD-7EA40057A07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="192">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -778,6 +778,14 @@
   </si>
   <si>
     <t>첨부파일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대문이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_image</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1341,6 +1349,18 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1371,29 +1391,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1740,8 +1748,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:L6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2399,20 +2407,20 @@
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44942</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -2424,34 +2432,34 @@
       <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2709,10 +2717,18 @@
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -3639,20 +3655,20 @@
       <c r="C2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44942</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3664,34 +3680,34 @@
       <c r="C3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4243,7 +4259,7 @@
   <dimension ref="B1:O35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4901,20 +4917,20 @@
       <c r="C2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44942</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -4926,34 +4942,34 @@
       <c r="C3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -6211,20 +6227,20 @@
       <c r="C2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44942</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -6236,34 +6252,34 @@
       <c r="C3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -7453,20 +7469,20 @@
       <c r="C2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44942</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -7478,34 +7494,34 @@
       <c r="C3" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -8669,20 +8685,20 @@
       <c r="C2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44942</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -8694,36 +8710,36 @@
       <c r="C3" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -8785,7 +8801,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="42"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
@@ -9944,20 +9960,20 @@
       <c r="C2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44942</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -9969,36 +9985,36 @@
       <c r="C3" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -11194,20 +11210,20 @@
       <c r="C2" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44946</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -11219,36 +11235,36 @@
       <c r="C3" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -11312,7 +11328,7 @@
       <c r="K6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="42"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
@@ -11353,12 +11369,12 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="41"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="45"/>
       <c r="K8" s="10"/>
       <c r="L8" s="15"/>
     </row>
@@ -11722,8 +11738,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12381,20 +12397,20 @@
       <c r="C2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44946</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -12406,36 +12422,36 @@
       <c r="C3" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -12543,7 +12559,7 @@
         <v>174</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="49"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -12566,7 +12582,7 @@
         <v>88</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="49"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -12622,14 +12638,14 @@
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="48"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="47"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="45"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
       <c r="K12" s="10"/>
       <c r="L12" s="15"/>
     </row>
@@ -12637,12 +12653,12 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -12652,12 +12668,12 @@
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -12667,12 +12683,12 @@
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>

--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\Academy\workspace\HowDo\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Project\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D1186F-2695-49C4-B112-3545B093D6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C60EFDF-AB7A-4392-804A-1DA6F7A79764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="390" windowWidth="21960" windowHeight="15240" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-705" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="211">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -390,10 +390,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_update_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>수정일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -418,10 +414,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>댓글</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -704,10 +696,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>고정문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>업로드일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -753,26 +741,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_delete_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_create_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_create_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_update_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_delete_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>i_create_date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -817,9 +785,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>시청기록</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -841,6 +806,65 @@
   </si>
   <si>
     <t>h_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT(DATE_FORMAT(NOW(), "%Y-%m-%d"))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT(DATE_FORMAT(NOW(), "%H:%i:&amp;S"))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(30)</t>
+  </si>
+  <si>
+    <t>b_update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_delete</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1842,8 +1866,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:L6"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2795,7 +2819,7 @@
         <v>44</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>46</v>
@@ -3081,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C9F1EA-2D5A-4F70-AE0F-88107F8CAB18}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3738,7 +3762,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>14</v>
@@ -3763,7 +3787,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -3784,7 +3808,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -3836,13 +3860,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>86</v>
@@ -3855,7 +3879,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3888,7 +3912,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>85</v>
@@ -3905,7 +3929,7 @@
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
       <c r="L8" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3913,7 +3937,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>85</v>
@@ -3930,7 +3954,7 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3938,16 +3962,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -3955,7 +3979,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3965,7 +3989,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -4270,12 +4294,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5042,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>85</v>
@@ -5061,7 +5085,7 @@
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5069,7 +5093,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>85</v>
@@ -5225,7 +5249,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>46</v>
@@ -5242,16 +5266,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -5259,7 +5283,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5267,16 +5291,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -5284,7 +5308,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5292,16 +5316,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="30"/>
@@ -6308,7 +6332,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>85</v>
@@ -6327,7 +6351,7 @@
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6335,7 +6359,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>85</v>
@@ -6508,13 +6532,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>86</v>
@@ -6531,16 +6555,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -6554,16 +6578,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -6571,7 +6595,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6579,16 +6603,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -6596,7 +6620,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6604,16 +6628,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="30"/>
@@ -7526,7 +7550,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>14</v>
@@ -7551,7 +7575,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -7622,13 +7646,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>86</v>
@@ -7641,7 +7665,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7649,7 +7673,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>85</v>
@@ -7670,7 +7694,7 @@
         <v>58</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7684,7 +7708,7 @@
         <v>85</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>86</v>
@@ -7709,7 +7733,7 @@
         <v>85</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>86</v>
@@ -7734,7 +7758,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>71</v>
@@ -7761,7 +7785,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>49</v>
@@ -7782,16 +7806,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -7800,10 +7824,10 @@
         <v>53</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7811,16 +7835,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -7829,10 +7853,10 @@
         <v>53</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7840,16 +7864,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="30"/>
@@ -7858,7 +7882,7 @@
         <v>53</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L14" s="15"/>
     </row>
@@ -8794,7 +8818,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>14</v>
@@ -8819,7 +8843,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -8890,13 +8914,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>86</v>
@@ -8909,7 +8933,7 @@
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8946,7 +8970,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>85</v>
@@ -8967,7 +8991,7 @@
         <v>75</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8975,7 +8999,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>85</v>
@@ -8996,7 +9020,7 @@
         <v>58</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9004,16 +9028,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -9021,7 +9045,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9029,16 +9053,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>32</v>
@@ -9370,7 +9394,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10072,7 +10096,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -10130,7 +10154,7 @@
         <v>85</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>86</v>
@@ -10143,7 +10167,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10151,7 +10175,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>85</v>
@@ -10162,7 +10186,9 @@
       <c r="F7" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
@@ -10191,7 +10217,9 @@
       <c r="F8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -10208,7 +10236,7 @@
         <v>88</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>69</v>
@@ -10228,21 +10256,23 @@
         <v>56</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10253,21 +10283,23 @@
         <v>19</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="10"/>
+        <v>157</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="15" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10275,24 +10307,26 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+        <v>157</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="15" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10300,44 +10334,46 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="10"/>
+        <v>205</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="15"/>
+      <c r="L13" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="10" t="s">
-        <v>144</v>
-      </c>
+      <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -10348,7 +10384,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>84</v>
@@ -10361,7 +10397,7 @@
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -10373,38 +10409,46 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>141</v>
-      </c>
+      <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -10419,7 +10463,9 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -10523,10 +10569,10 @@
         <v>44946</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -10649,7 +10695,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11305,7 +11351,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>14</v>
@@ -11330,7 +11376,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -11351,7 +11397,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -11409,7 +11455,7 @@
         <v>85</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>86</v>
@@ -11422,7 +11468,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11430,13 +11476,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>86</v>
@@ -11448,10 +11494,10 @@
         <v>82</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11459,7 +11505,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>85</v>
@@ -11488,13 +11534,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>86</v>
@@ -11511,16 +11557,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -11528,7 +11574,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11536,16 +11582,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -11553,7 +11599,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="15" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11561,65 +11607,73 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="15"/>
+      <c r="L12" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="10" t="s">
-        <v>175</v>
-      </c>
+      <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="15"/>
+      <c r="L14" s="15" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9">
@@ -11630,7 +11684,9 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -11779,10 +11835,10 @@
         <v>44946</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -11905,7 +11961,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12561,7 +12617,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>14</v>
@@ -12586,7 +12642,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -12597,7 +12653,7 @@
       </c>
       <c r="I3" s="44"/>
       <c r="J3" s="47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K3" s="48"/>
       <c r="L3" s="17"/>
@@ -12607,7 +12663,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -12659,13 +12715,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>86</v>
@@ -12679,10 +12735,10 @@
         <v>82</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12690,7 +12746,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>85</v>
@@ -12725,7 +12781,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
@@ -12770,7 +12826,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -13095,8 +13151,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13752,7 +13808,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>14</v>
@@ -13777,7 +13833,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -13788,7 +13844,7 @@
       </c>
       <c r="I3" s="44"/>
       <c r="J3" s="47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K3" s="48"/>
       <c r="L3" s="17"/>
@@ -13798,7 +13854,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -13853,10 +13909,10 @@
         <v>83</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>86</v>
@@ -13869,7 +13925,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13877,13 +13933,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>86</v>
@@ -13895,10 +13951,10 @@
         <v>82</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13906,16 +13962,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="35"/>
@@ -13923,7 +13979,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="15" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13931,13 +13987,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>86</v>
@@ -13954,13 +14010,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>86</v>
@@ -13977,16 +14033,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -14018,7 +14074,7 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>

--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Project\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C60EFDF-AB7A-4392-804A-1DA6F7A79764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331EF193-95C8-49BE-A635-4F810C815354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-705" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="212">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -840,18 +840,10 @@
     <t>문자열(30)</t>
   </si>
   <si>
-    <t>b_update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DATETIME</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_delete</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>r_date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -860,11 +852,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>r_update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_delete</t>
+    <t>b_updated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_deleted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_deleted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_updated</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9394,7 +9398,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E11" sqref="E11:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10340,10 +10344,10 @@
         <v>203</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>32</v>
@@ -10367,7 +10371,7 @@
         <v>197</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>157</v>
@@ -10695,7 +10699,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11563,7 +11567,7 @@
         <v>197</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>157</v>
@@ -11588,7 +11592,7 @@
         <v>197</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>157</v>
@@ -11613,10 +11617,10 @@
         <v>203</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -13152,7 +13156,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13965,21 +13969,23 @@
         <v>167</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>166</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="10"/>
+        <v>204</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="H8" s="35"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="15" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Project\HowDo\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Project\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331EF193-95C8-49BE-A635-4F810C815354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE7265B-511A-42E0-9428-604AD9CE6445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-705" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2070" windowWidth="27855" windowHeight="13200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="215">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -576,10 +576,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유저이름, 게시판코드, 카테고리코드 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>전유영</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -869,6 +865,22 @@
   </si>
   <si>
     <t>r_updated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_replies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저이름, 게시판코드, 카테고리코드 칼럼 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글수 칼럼 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3766,7 +3778,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>14</v>
@@ -3791,7 +3803,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -3812,7 +3824,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -3864,13 +3876,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>86</v>
@@ -3883,7 +3895,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3933,7 +3945,7 @@
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
       <c r="L8" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3958,7 +3970,7 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3966,13 +3978,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>119</v>
@@ -3983,7 +3995,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3993,7 +4005,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -5089,7 +5101,7 @@
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5276,7 +5288,7 @@
         <v>124</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>119</v>
@@ -5287,7 +5299,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5301,7 +5313,7 @@
         <v>124</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>119</v>
@@ -6355,7 +6367,7 @@
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6588,7 +6600,7 @@
         <v>124</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>119</v>
@@ -6599,7 +6611,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6613,7 +6625,7 @@
         <v>124</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>119</v>
@@ -7669,7 +7681,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7698,7 +7710,7 @@
         <v>58</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7737,7 +7749,7 @@
         <v>85</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>86</v>
@@ -7762,7 +7774,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>71</v>
@@ -7789,7 +7801,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>49</v>
@@ -7816,7 +7828,7 @@
         <v>124</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>119</v>
@@ -7831,7 +7843,7 @@
         <v>113</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7845,7 +7857,7 @@
         <v>124</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>119</v>
@@ -7874,7 +7886,7 @@
         <v>92</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>93</v>
@@ -8937,7 +8949,7 @@
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8995,7 +9007,7 @@
         <v>75</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9024,7 +9036,7 @@
         <v>58</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9038,7 +9050,7 @@
         <v>124</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>119</v>
@@ -9049,7 +9061,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9397,8 +9409,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:L12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10100,7 +10112,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -10171,7 +10183,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10240,7 +10252,7 @@
         <v>88</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>69</v>
@@ -10276,7 +10288,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10287,13 +10299,13 @@
         <v>19</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>198</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>32</v>
@@ -10303,7 +10315,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10311,16 +10323,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>201</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>32</v>
@@ -10330,7 +10342,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10341,13 +10353,13 @@
         <v>89</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>204</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>32</v>
@@ -10368,13 +10380,13 @@
         <v>90</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -10394,14 +10406,14 @@
         <v>84</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -10413,46 +10425,46 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="15" t="s">
-        <v>178</v>
-      </c>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
         <v>12</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -10462,14 +10474,20 @@
       <c r="B18" s="9">
         <v>13</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="10" t="s">
-        <v>139</v>
-      </c>
+      <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -10484,7 +10502,9 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -10573,10 +10593,10 @@
         <v>44946</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -10587,10 +10607,18 @@
       <c r="L28" s="24"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="B29" s="22">
+        <v>3</v>
+      </c>
+      <c r="C29" s="31">
+        <v>44955</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>214</v>
+      </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -10698,7 +10726,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -11401,7 +11429,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -11472,7 +11500,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11501,7 +11529,7 @@
         <v>91</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11564,13 +11592,13 @@
         <v>99</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -11578,7 +11606,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11586,16 +11614,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -11603,7 +11631,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11614,13 +11642,13 @@
         <v>98</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>204</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -11639,13 +11667,13 @@
         <v>97</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -11659,16 +11687,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -11676,7 +11704,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11689,7 +11717,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -11839,10 +11867,10 @@
         <v>44946</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -12621,7 +12649,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>14</v>
@@ -12646,7 +12674,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -12657,7 +12685,7 @@
       </c>
       <c r="I3" s="44"/>
       <c r="J3" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K3" s="48"/>
       <c r="L3" s="17"/>
@@ -12667,7 +12695,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -12719,7 +12747,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>85</v>
@@ -12742,7 +12770,7 @@
         <v>91</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12785,7 +12813,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
@@ -12830,7 +12858,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -13155,7 +13183,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -13812,7 +13840,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>14</v>
@@ -13837,7 +13865,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -13848,7 +13876,7 @@
       </c>
       <c r="I3" s="44"/>
       <c r="J3" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K3" s="48"/>
       <c r="L3" s="17"/>
@@ -13858,7 +13886,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -13913,10 +13941,10 @@
         <v>83</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>86</v>
@@ -13929,7 +13957,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13937,10 +13965,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>91</v>
@@ -13958,7 +13986,7 @@
         <v>91</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13966,16 +13994,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>204</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>32</v>
@@ -13985,7 +14013,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13993,13 +14021,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>86</v>
@@ -14016,13 +14044,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>86</v>
@@ -14039,16 +14067,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -14080,7 +14108,7 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>

--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Project\HowDo\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE7265B-511A-42E0-9428-604AD9CE6445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240F4FCA-E152-40B8-B22C-4D37709E3413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2070" windowWidth="27855" windowHeight="13200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3210" windowWidth="27855" windowHeight="13200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="2" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="영상" sheetId="3" r:id="rId3"/>
     <sheet name="쇼츠" sheetId="10" r:id="rId4"/>
     <sheet name="구매내역" sheetId="15" r:id="rId5"/>
-    <sheet name="게시글" sheetId="16" r:id="rId6"/>
-    <sheet name="댓글" sheetId="17" r:id="rId7"/>
-    <sheet name="추천" sheetId="18" r:id="rId8"/>
-    <sheet name="첨부파일" sheetId="19" r:id="rId9"/>
-    <sheet name="시청기록" sheetId="21" r:id="rId10"/>
+    <sheet name="게시판" sheetId="22" r:id="rId6"/>
+    <sheet name="게시글" sheetId="16" r:id="rId7"/>
+    <sheet name="댓글" sheetId="17" r:id="rId8"/>
+    <sheet name="추천" sheetId="18" r:id="rId9"/>
+    <sheet name="첨부파일" sheetId="19" r:id="rId10"/>
+    <sheet name="시청기록" sheetId="21" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="226">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -362,14 +363,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>board_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>큰정수형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -382,10 +375,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>텍스트형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -410,10 +399,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>댓글</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -584,30 +569,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DEFAULT 0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_upvote</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>추천수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_views</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글의 정보를 저장하는 테이블(사용자정보:게시글  = 1:N)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -620,10 +589,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>r_parent_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>부모댓글번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -636,10 +601,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시글번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자가 추천한 게시글을 저장하는 테이블(게시글:추천 = 1:N, 사용자정보:추천 = 1:N)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -733,10 +694,6 @@
     <t>VARCHAR(256)</t>
   </si>
   <si>
-    <t xml:space="preserve">데이터 파일 import </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>i_create_date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -805,18 +762,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>가변문자열(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DEFAULT(DATE_FORMAT(NOW(), "%Y-%m-%d"))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -825,10 +774,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DEFAULT(DATE_FORMAT(NOW(), "%H:%i:&amp;S"))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -848,14 +793,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_updated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_deleted</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DEFAULT CURRENT_TIMESTAMP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -872,15 +809,123 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b_replies</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>유저이름, 게시판코드, 카테고리코드 칼럼 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>댓글수 칼럼 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판의 정보를 저장하는 테이블(게시판:게시글  = 1:N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_group_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_updated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_deleted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_views</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_replies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_upvote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판한글명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판영문명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_eng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_kor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹영문명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹한글명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_group_eng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_group_kor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2638,13 +2683,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
@@ -2665,13 +2710,13 @@
         <v>30</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>32</v>
@@ -2690,13 +2735,13 @@
         <v>33</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2740,13 +2785,13 @@
         <v>41</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -2809,13 +2854,13 @@
         <v>47</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -2835,7 +2880,7 @@
         <v>44</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>46</v>
@@ -3118,6 +3163,1224 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F11370-F53C-4B4B-A245-1E1676B40E78}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="45">
+        <v>44946</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="48"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="22"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C9F1EA-2D5A-4F70-AE0F-88107F8CAB18}">
   <dimension ref="B1:L35"/>
   <sheetViews>
@@ -3778,7 +5041,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>14</v>
@@ -3803,7 +5066,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -3824,7 +5087,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -3876,16 +5139,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
@@ -3895,7 +5158,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3906,13 +5169,13 @@
         <v>26</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -3928,16 +5191,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="28"/>
@@ -3945,7 +5208,7 @@
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
       <c r="L8" s="32" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3953,16 +5216,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="28"/>
@@ -3970,7 +5233,7 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="32" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3978,16 +5241,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -3995,7 +5258,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4005,7 +5268,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -5082,16 +6345,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>75</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="28" t="s">
@@ -5101,7 +6364,7 @@
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="32" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5109,16 +6372,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>32</v>
@@ -5143,13 +6406,13 @@
         <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>76</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>32</v>
@@ -5168,13 +6431,13 @@
         <v>59</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>77</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>32</v>
@@ -5265,7 +6528,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>46</v>
@@ -5282,16 +6545,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -5299,7 +6562,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5307,16 +6570,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -5324,7 +6587,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5332,16 +6595,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="30"/>
@@ -6348,16 +7611,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="28" t="s">
@@ -6367,7 +7630,7 @@
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="32" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6375,16 +7638,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>32</v>
@@ -6409,13 +7672,13 @@
         <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>32</v>
@@ -6434,13 +7697,13 @@
         <v>59</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>60</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>32</v>
@@ -6548,16 +7811,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -6571,16 +7834,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E15" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -6594,16 +7857,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -6611,7 +7874,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6619,16 +7882,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -6636,7 +7899,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6644,16 +7907,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="30"/>
@@ -7566,7 +8829,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>14</v>
@@ -7591,7 +8854,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -7662,16 +8925,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="28" t="s">
@@ -7681,7 +8944,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7689,16 +8952,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -7710,7 +8973,7 @@
         <v>58</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7721,13 +8984,13 @@
         <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>32</v>
@@ -7746,13 +9009,13 @@
         <v>59</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>32</v>
@@ -7774,7 +9037,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>71</v>
@@ -7801,7 +9064,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>49</v>
@@ -7822,16 +9085,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -7840,10 +9103,10 @@
         <v>53</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7851,16 +9114,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -7869,10 +9132,10 @@
         <v>53</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7880,16 +9143,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="30"/>
@@ -7898,7 +9161,7 @@
         <v>53</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L14" s="15"/>
     </row>
@@ -8834,7 +10097,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>14</v>
@@ -8859,7 +10122,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -8930,16 +10193,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="28" t="s">
@@ -8949,7 +10212,7 @@
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="32" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8960,13 +10223,13 @@
         <v>26</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -8986,16 +10249,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>75</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -9007,7 +10270,7 @@
         <v>75</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9015,16 +10278,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -9036,7 +10299,7 @@
         <v>58</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9044,16 +10307,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -9061,7 +10324,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9069,16 +10332,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>32</v>
@@ -9405,12 +10668,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FF823B-FB0D-4045-8343-C9225BEE78BA}">
-  <sheetPr codeName="Sheet6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418D5EA1-8BF0-47BF-BE2B-2229BEAE72E8}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10066,7 +11328,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>14</v>
@@ -10079,7 +11341,7 @@
       </c>
       <c r="I2" s="43"/>
       <c r="J2" s="45">
-        <v>44942</v>
+        <v>44956</v>
       </c>
       <c r="K2" s="46"/>
       <c r="L2" s="18" t="s">
@@ -10091,7 +11353,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -10102,7 +11364,7 @@
       </c>
       <c r="I3" s="44"/>
       <c r="J3" s="47" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="K3" s="48"/>
       <c r="L3" s="17"/>
@@ -10112,7 +11374,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -10164,16 +11426,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="28" t="s">
@@ -10183,7 +11445,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10191,47 +11453,41 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>32</v>
@@ -10246,148 +11502,110 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="15"/>
+      <c r="L9" s="15" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9">
         <v>5</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="15" t="s">
-        <v>177</v>
-      </c>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="15" t="s">
-        <v>198</v>
-      </c>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="15" t="s">
-        <v>201</v>
-      </c>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="15" t="s">
-        <v>117</v>
-      </c>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>156</v>
-      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -10399,22 +11617,12 @@
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="10" t="s">
-        <v>141</v>
-      </c>
+      <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -10424,22 +11632,12 @@
       <c r="B16" s="9">
         <v>11</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
-        <v>141</v>
-      </c>
+      <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -10449,22 +11647,12 @@
       <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>141</v>
-      </c>
+      <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -10474,18 +11662,10 @@
       <c r="B18" s="9">
         <v>13</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -10502,9 +11682,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="10" t="s">
-        <v>138</v>
-      </c>
+      <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -10567,15 +11745,9 @@
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="22">
-        <v>1</v>
-      </c>
-      <c r="C27" s="31">
-        <v>44942</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>24</v>
-      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
@@ -10586,18 +11758,10 @@
       <c r="L27" s="24"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="22">
-        <v>2</v>
-      </c>
-      <c r="C28" s="31">
-        <v>44946</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>213</v>
-      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
@@ -10607,6 +11771,1319 @@
       <c r="L28" s="24"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FF823B-FB0D-4045-8343-C9225BEE78BA}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="45">
+        <v>44942</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="48"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="22">
+        <v>1</v>
+      </c>
+      <c r="C27" s="31">
+        <v>44942</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="22">
+        <v>2</v>
+      </c>
+      <c r="C28" s="31">
+        <v>44946</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="22">
         <v>3</v>
       </c>
@@ -10614,10 +13091,10 @@
         <v>44955</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
@@ -10721,13 +13198,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B9802E-DAEF-4E87-B108-68237DF18B12}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11383,7 +13860,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>14</v>
@@ -11408,7 +13885,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -11429,7 +13906,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -11481,16 +13958,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="28" t="s">
@@ -11500,7 +13977,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11508,28 +13985,28 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11537,16 +14014,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="30"/>
@@ -11566,16 +14043,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -11589,16 +14066,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -11606,7 +14083,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11614,16 +14091,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -11631,7 +14108,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="15" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11639,16 +14116,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -11656,7 +14133,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11664,16 +14141,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -11687,16 +14164,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -11704,7 +14181,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11717,7 +14194,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -11867,10 +14344,10 @@
         <v>44946</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -11987,13 +14464,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B4BC0C-57ED-4576-938B-B0E71E7C73E0}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12649,7 +15126,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>14</v>
@@ -12674,7 +15151,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -12685,7 +15162,7 @@
       </c>
       <c r="I3" s="44"/>
       <c r="J3" s="47" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K3" s="48"/>
       <c r="L3" s="17"/>
@@ -12695,7 +15172,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -12747,16 +15224,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="10" t="s">
@@ -12764,13 +15241,13 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12778,16 +15255,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
@@ -12813,7 +15290,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="47" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
@@ -12858,7 +15335,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -13176,1222 +15653,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F11370-F53C-4B4B-A245-1E1676B40E78}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="B1:L35"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="258" width="8.88671875" style="1"/>
-    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
-    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="269" max="514" width="8.88671875" style="1"/>
-    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
-    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="525" max="770" width="8.88671875" style="1"/>
-    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
-    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="781" max="1026" width="8.88671875" style="1"/>
-    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1282" width="8.88671875" style="1"/>
-    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1538" width="8.88671875" style="1"/>
-    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1794" width="8.88671875" style="1"/>
-    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1805" max="2050" width="8.88671875" style="1"/>
-    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2306" width="8.88671875" style="1"/>
-    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2562" width="8.88671875" style="1"/>
-    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2818" width="8.88671875" style="1"/>
-    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2829" max="3074" width="8.88671875" style="1"/>
-    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3330" width="8.88671875" style="1"/>
-    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3586" width="8.88671875" style="1"/>
-    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3842" width="8.88671875" style="1"/>
-    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3853" max="4098" width="8.88671875" style="1"/>
-    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4354" width="8.88671875" style="1"/>
-    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4610" width="8.88671875" style="1"/>
-    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4866" width="8.88671875" style="1"/>
-    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4877" max="5122" width="8.88671875" style="1"/>
-    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5378" width="8.88671875" style="1"/>
-    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5634" width="8.88671875" style="1"/>
-    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5890" width="8.88671875" style="1"/>
-    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5901" max="6146" width="8.88671875" style="1"/>
-    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6402" width="8.88671875" style="1"/>
-    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6658" width="8.88671875" style="1"/>
-    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6914" width="8.88671875" style="1"/>
-    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6925" max="7170" width="8.88671875" style="1"/>
-    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7426" width="8.88671875" style="1"/>
-    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7682" width="8.88671875" style="1"/>
-    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7938" width="8.88671875" style="1"/>
-    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7949" max="8194" width="8.88671875" style="1"/>
-    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8450" width="8.88671875" style="1"/>
-    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8706" width="8.88671875" style="1"/>
-    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8962" width="8.88671875" style="1"/>
-    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8973" max="9218" width="8.88671875" style="1"/>
-    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9474" width="8.88671875" style="1"/>
-    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9730" width="8.88671875" style="1"/>
-    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9986" width="8.88671875" style="1"/>
-    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9997" max="10242" width="8.88671875" style="1"/>
-    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10498" width="8.88671875" style="1"/>
-    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10754" width="8.88671875" style="1"/>
-    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10765" max="11010" width="8.88671875" style="1"/>
-    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11266" width="8.88671875" style="1"/>
-    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11522" width="8.88671875" style="1"/>
-    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11778" width="8.88671875" style="1"/>
-    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11789" max="12034" width="8.88671875" style="1"/>
-    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12290" width="8.88671875" style="1"/>
-    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12546" width="8.88671875" style="1"/>
-    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12802" width="8.88671875" style="1"/>
-    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12813" max="13058" width="8.88671875" style="1"/>
-    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13314" width="8.88671875" style="1"/>
-    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13570" width="8.88671875" style="1"/>
-    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13826" width="8.88671875" style="1"/>
-    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13837" max="14082" width="8.88671875" style="1"/>
-    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14338" width="8.88671875" style="1"/>
-    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14594" width="8.88671875" style="1"/>
-    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14850" width="8.88671875" style="1"/>
-    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14861" max="15106" width="8.88671875" style="1"/>
-    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15362" width="8.88671875" style="1"/>
-    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15618" width="8.88671875" style="1"/>
-    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15874" width="8.88671875" style="1"/>
-    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15885" max="16130" width="8.88671875" style="1"/>
-    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="45">
-        <v>44946</v>
-      </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
-    </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9">
-        <v>7</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9">
-        <v>8</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="15"/>
-    </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9">
-        <v>9</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="9">
-        <v>10</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9">
-        <v>11</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="9">
-        <v>12</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="15"/>
-    </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="9">
-        <v>13</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="9">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="15"/>
-    </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="9">
-        <v>15</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="22"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-    </row>
-    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-    </row>
-    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-    </row>
-    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-    </row>
-    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240F4FCA-E152-40B8-B22C-4D37709E3413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F3EBFA-D21E-48D2-A35C-BBF70C29F9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3210" windowWidth="27855" windowHeight="13200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="2970" windowWidth="27855" windowHeight="13200" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="2" r:id="rId1"/>
@@ -1916,7 +1916,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10671,7 +10671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418D5EA1-8BF0-47BF-BE2B-2229BEAE72E8}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -11863,12 +11863,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11882,8 +11882,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12857,13 +12857,13 @@
         <v>87</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>209</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -13204,7 +13204,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14144,13 +14144,13 @@
         <v>93</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>193</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>

--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F3EBFA-D21E-48D2-A35C-BBF70C29F9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A3AAD8-E8F5-48DD-8966-41B5F0E35D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="2970" windowWidth="27855" windowHeight="13200" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="2970" windowWidth="27855" windowHeight="13200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="230">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -926,6 +926,22 @@
   </si>
   <si>
     <t>b_group_kor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한등급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user 의 level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한등급 칼럼 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10671,8 +10687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418D5EA1-8BF0-47BF-BE2B-2229BEAE72E8}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11502,61 +11518,65 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="15" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>222</v>
+      <c r="C10" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="15"/>
+      <c r="L10" s="15" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>223</v>
+      <c r="C11" s="29" t="s">
+        <v>222</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>84</v>
@@ -11572,13 +11592,21 @@
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="15"/>
@@ -11745,10 +11773,18 @@
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="22"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="B27" s="22">
+        <v>1</v>
+      </c>
+      <c r="C27" s="31">
+        <v>44597</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>229</v>
+      </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
@@ -11882,7 +11918,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\HowDo\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\Academy\workspace\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F3EBFA-D21E-48D2-A35C-BBF70C29F9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16FEBE5-F210-4F98-87B6-16524DF23239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="2970" windowWidth="27855" windowHeight="13200" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="추천" sheetId="18" r:id="rId9"/>
     <sheet name="첨부파일" sheetId="19" r:id="rId10"/>
     <sheet name="시청기록" sheetId="21" r:id="rId11"/>
+    <sheet name="구독" sheetId="25" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="240">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -926,6 +927,62 @@
   </si>
   <si>
     <t>b_group_kor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>approved_at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner_order_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner_user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inactivated_at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비활성화 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(partner_user_id,partner_order_id)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5587,6 +5644,1203 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981AA9E1-C15A-4A33-AC3F-85C96F275C16}">
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="45">
+        <v>44956</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="48"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="22"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8C82F5-4572-4347-A743-8C9DA75DDF73}">
   <sheetPr codeName="Sheet2"/>
@@ -11882,7 +13136,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS500516\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Project\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381B9367-0AC7-429E-98ED-6D7FC92A2C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE97BC8-D041-49F4-B38B-AB510B1D58C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1680" windowWidth="27690" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="249">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -874,10 +874,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>p_upvote</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>댓글코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -999,6 +995,30 @@
   </si>
   <si>
     <t>구독</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_upvotes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_thumb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>upvotes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2000,8 +2020,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2969,12 +2989,22 @@
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="C15" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -2984,10 +3014,18 @@
       <c r="B16" s="9">
         <v>11</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -3995,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>151</v>
@@ -4022,7 +4060,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>151</v>
@@ -5664,8 +5702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A0D5E1-9880-40D4-830B-B4785FB26912}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6321,7 +6359,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>14</v>
@@ -6346,7 +6384,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -6417,13 +6455,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>84</v>
@@ -6440,13 +6478,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>83</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>84</v>
@@ -6463,13 +6501,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>38</v>
@@ -6488,13 +6526,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>71</v>
@@ -6513,20 +6551,20 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>71</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -12715,7 +12753,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12723,13 +12761,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>83</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>84</v>
@@ -12748,13 +12786,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>83</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>84</v>
@@ -12772,13 +12810,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>46</v>
@@ -12791,7 +12829,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12816,7 +12854,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12824,13 +12862,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>84</v>
@@ -12847,13 +12885,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>83</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>84</v>
@@ -13037,7 +13075,7 @@
         <v>133</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
@@ -13172,8 +13210,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13927,7 +13965,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>83</v>
@@ -14055,7 +14093,7 @@
         <v>88</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14223,7 +14261,7 @@
         <v>82</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>49</v>
@@ -14242,16 +14280,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -14264,14 +14302,20 @@
       <c r="B19" s="9">
         <v>14</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="10" t="s">
-        <v>134</v>
-      </c>
+      <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -14286,7 +14330,9 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -15248,7 +15294,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>83</v>
@@ -16514,7 +16560,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>83</v>

--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Project\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE97BC8-D041-49F4-B38B-AB510B1D58C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D501D44-446A-43CA-910C-9D6CAF91959F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1680" windowWidth="27690" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="248">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1015,10 +1015,6 @@
   </si>
   <si>
     <t>p_thumb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>upvotes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2996,7 +2992,7 @@
         <v>44</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>248</v>
+        <v>144</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>46</v>

--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Project\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D501D44-446A-43CA-910C-9D6CAF91959F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5478BDEA-CA31-44AE-A990-69320C1890B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1680" windowWidth="27690" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1680" windowWidth="27690" windowHeight="13800" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="250">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1015,6 +1015,14 @@
   </si>
   <si>
     <t>p_thumb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천수 칼럼 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 칼럼 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2016,8 +2024,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3150,10 +3158,18 @@
       <c r="L27" s="24"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="22">
+        <v>2</v>
+      </c>
+      <c r="C28" s="31">
+        <v>44964</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>248</v>
+      </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
@@ -13206,8 +13222,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14437,10 +14453,18 @@
       <c r="L29" s="24"/>
     </row>
     <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="B30" s="22">
+        <v>4</v>
+      </c>
+      <c r="C30" s="31">
+        <v>44964</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>249</v>
+      </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>

--- a/docs/HowDo-테이블명세.xlsx
+++ b/docs/HowDo-테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Project\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5478BDEA-CA31-44AE-A990-69320C1890B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD564077-5A96-4060-A095-6F7A301D9F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1680" windowWidth="27690" windowHeight="13800" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1680" windowWidth="27690" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="254">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1023,6 +1023,22 @@
   </si>
   <si>
     <t>썸네일 칼럼 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_children</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글수 칼럼 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2024,8 +2040,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3003,7 +3019,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="s">
@@ -13222,8 +13238,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14559,8 +14575,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15520,42 +15536,52 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="15" t="s">
-        <v>139</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="10" t="s">
-        <v>161</v>
-      </c>
+      <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="15"/>
+      <c r="L15" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9">
@@ -15566,7 +15592,9 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -15714,10 +15742,18 @@
       <c r="L28" s="24"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="B29" s="22">
+        <v>3</v>
+      </c>
+      <c r="C29" s="31">
+        <v>44965</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>253</v>
+      </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
